--- a/data/trans_orig/CAL_SUEÑO_SATED-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Clase-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad del sueño</t>
+          <t>Calidad del sueño (tasa de respuesta: 95,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAL_SUEÑO_SATED-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Clase-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 8,03</t>
+          <t>7,71; 8,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,69</t>
+          <t>7,37; 7,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,81</t>
+          <t>7,6; 7,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,78</t>
+          <t>7,21; 7,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,53</t>
+          <t>7,09; 7,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,59</t>
+          <t>7,23; 7,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,62</t>
+          <t>7,2; 7,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,56</t>
+          <t>6,77; 7,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,58</t>
+          <t>7,14; 7,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,45</t>
+          <t>7,11; 7,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 7,23</t>
+          <t>6,61; 7,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,27</t>
+          <t>6,91; 7,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,58</t>
+          <t>6,86; 7,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 7,05</t>
+          <t>6,53; 7,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,14</t>
+          <t>6,73; 7,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 8,18</t>
+          <t>6,57; 7,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 7,32</t>
+          <t>6,86; 7,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,47</t>
+          <t>6,94; 7,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,58</t>
+          <t>7,41; 7,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,24</t>
+          <t>7,04; 7,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,37</t>
+          <t>7,25; 7,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_orig/CAL_SUEÑO_SATED-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Clase-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,76</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>7,92</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>8,35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,61</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,35</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>8,56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,76</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,56</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>8,59; 8,93</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>7,71; 8,14</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,59; 8,93</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>8,15; 8,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,37; 7,83</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 8,53</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>8,42; 8,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,6; 7,91</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 8,69</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,33</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,5</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,33</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>8,24</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,24</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,28</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,42</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,28</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>8,07; 8,54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>7,21; 7,75</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,07; 8,54</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>7,99; 8,44</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,09; 7,61</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,99; 8,44</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>8,12; 8,44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,23; 7,63</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 8,44</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,57</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>7,45</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,57</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>7,97</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,13</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>8,38</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,36</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>8,34; 8,78</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>7,2; 7,66</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,34; 8,78</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>7,58; 8,37</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>6,77; 7,5</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 8,37</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>8,17; 8,57</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,14; 7,55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,17; 8,57</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,06</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>6,85</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,95</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,09</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,95</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,84; 8,27</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>7,11; 7,59</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 8,27</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>7,62; 8,03</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>6,61; 7,08</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,62; 8,03</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,78; 8,1</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>6,91; 7,27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 8,1</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>7,27</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>7,92</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>6,81</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>6,98</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>7,81; 8,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>6,86; 7,66</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,81; 8,43</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>7,62; 8,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>6,53; 7,08</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,62; 8,19</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>7,83; 8,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>6,73; 7,21</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,83; 8,23</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,55</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>7,48</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,55</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>7,17</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,79</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7,26</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,15</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5,18; 8,97</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>6,57; 7,94</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 8,97</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>5,5; 8,12</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>6,86; 7,49</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 8,12</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>5,79; 8,14</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6,94; 7,51</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 8,14</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>7,53</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,17</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7,34</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>8,27; 8,47</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>7,41; 7,65</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8,27; 8,47</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>7,95; 8,17</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>7,04; 7,27</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 8,17</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>8,15; 8,31</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7,25; 7,42</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 8,31</t>
         </is>
       </c>
     </row>
